--- a/final-reports/report/tables_and_code/algorithms.xlsx
+++ b/final-reports/report/tables_and_code/algorithms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KatB\Projects\Github\Thesis-report\MscThesis\final-reports\report\tables_and_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FECB87-D050-4C4B-A9B6-28E8926BC745}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC7B5A3-2922-42D3-A82D-76B8BE4E95D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{EB23A38C-2BFB-4356-98A6-05C95B54243C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{EB23A38C-2BFB-4356-98A6-05C95B54243C}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -174,9 +174,6 @@
     <t>pySOT</t>
   </si>
   <si>
-    <t>Both</t>
-  </si>
-  <si>
     <t>M</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>ISRES</t>
+  </si>
+  <si>
+    <t>SM</t>
   </si>
 </sst>
 </file>
@@ -251,10 +251,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -274,7 +274,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -572,33 +572,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907332FB-D276-4874-B663-030EDFF5A7D8}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="79" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26171875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.83984375" style="1"/>
-    <col min="4" max="4" width="18.15625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.734375" customWidth="1"/>
-    <col min="6" max="6" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.47265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,15 +615,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>41</v>
@@ -632,13 +632,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="5"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>39</v>
@@ -647,13 +647,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5"/>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>38</v>
@@ -662,13 +662,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="5"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>40</v>
@@ -677,30 +677,30 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="5"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>8</v>
@@ -709,28 +709,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="5"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>7</v>
@@ -739,13 +739,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="5"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>9</v>
@@ -754,13 +754,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>4</v>
@@ -769,13 +769,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
@@ -784,13 +784,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>11</v>
@@ -799,28 +799,28 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="5"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>12</v>
@@ -829,13 +829,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>13</v>
@@ -844,13 +844,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>14</v>
@@ -859,13 +859,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>15</v>
@@ -874,13 +874,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>16</v>
@@ -889,13 +889,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>17</v>
@@ -904,13 +904,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>18</v>
@@ -919,13 +919,13 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>19</v>
@@ -934,15 +934,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="5" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>21</v>
@@ -951,13 +951,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="5"/>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>22</v>
@@ -966,13 +966,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="5"/>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>23</v>
@@ -981,13 +981,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="5"/>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>24</v>
@@ -996,13 +996,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="5"/>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>25</v>
@@ -1011,15 +1011,15 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="5" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>28</v>
@@ -1028,13 +1028,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="5"/>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>27</v>
@@ -1043,13 +1043,13 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="5"/>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>32</v>
@@ -1058,13 +1058,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="5"/>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>30</v>
@@ -1073,13 +1073,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="5"/>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>31</v>
@@ -1088,13 +1088,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="5"/>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
       <c r="B34" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>33</v>
@@ -1103,13 +1103,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="5"/>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>29</v>
@@ -1118,13 +1118,13 @@
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="5"/>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
       <c r="B36" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>44</v>
@@ -1133,13 +1133,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="5"/>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
       <c r="B37" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>45</v>
@@ -1148,13 +1148,13 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="5"/>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
       <c r="B38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>34</v>
@@ -1163,7 +1163,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="3"/>
     </row>
   </sheetData>
